--- a/01-MULTIPHASE/python/png/time_constant.xlsx
+++ b/01-MULTIPHASE/python/png/time_constant.xlsx
@@ -465,15 +465,15 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48.05403678571923</v>
+        <v>47.99854712427065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>143.99666506278265</t>
+          <t>144.0186595357804</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>72.08105517857884</v>
+        <v>71.99782068640597</v>
       </c>
     </row>
     <row r="3">
@@ -486,15 +486,15 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22.66456103766009</v>
+        <v>22.68177091338429</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>247.51892873829163</t>
+          <t>247.49809359964712</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>33.99684155649013</v>
+        <v>34.02265637007643</v>
       </c>
     </row>
     <row r="4">
@@ -507,15 +507,15 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36.9304379699129</v>
+        <v>36.53707818587074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>80.49134841872241</t>
+          <t>90.23922619863889</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>55.39565695486935</v>
+        <v>54.80561727880611</v>
       </c>
     </row>
     <row r="5">

--- a/01-MULTIPHASE/python/png/time_constant.xlsx
+++ b/01-MULTIPHASE/python/png/time_constant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,19 +461,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2P2K4 MW Cap Cont</t>
+          <t>2P2K4 MW $P_c=0$</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>47.99854712427065</v>
+        <v>48.97661875049255</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>144.0186595357804</t>
+          <t>318.08041647349995</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>71.99782068640597</v>
+        <v>73.46492812573882</v>
       </c>
     </row>
     <row r="3">
@@ -482,19 +482,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2P2K4 OW Cap Cont</t>
+          <t>2P2K4 MW Cap Cont</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22.68177091338429</v>
+        <v>49.54705200452881</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>247.49809359964712</t>
+          <t>166.62961285844378</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>34.02265637007643</v>
+        <v>74.32057800679321</v>
       </c>
     </row>
     <row r="4">
@@ -503,19 +503,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2P2K4 WW Cap Cont</t>
+          <t>2P2K4 OW $P_c=0$</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36.53707818587074</v>
+        <v>32.15390362023731</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.23922619863889</t>
+          <t>416.5086845537493</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>54.80561727880611</v>
+        <v>48.23085543035596</v>
       </c>
     </row>
     <row r="5">
@@ -524,19 +524,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LGR MW $P_c=0$</t>
+          <t>2P2K4 OW Cap Cont</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37.81395548887465</v>
+        <v>31.89315909899628</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>216.41454199034845</t>
+          <t>668.2562156000694</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>56.72093323331197</v>
+        <v>47.83973864849442</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LGR MW Cap Cont</t>
+          <t>2P2K4 WW $P_c=0$</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49.19363809281879</v>
+        <v>37.02935195178404</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.22068489866474</t>
+          <t>173.35303584127286</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>73.79045713922818</v>
+        <v>55.54402792767605</v>
       </c>
     </row>
     <row r="7">
@@ -566,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LGR MW Cap Discont</t>
+          <t>2P2K4 WW Cap Cont</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>33.0182597445226</v>
+        <v>36.17966064305852</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>54.56536445329199</t>
+          <t>91.90579351617556</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>49.5273896167839</v>
+        <v>54.26949096458777</v>
       </c>
     </row>
     <row r="8">
@@ -587,19 +587,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LGR OW $P_c=0$</t>
+          <t>LGR MW $P_c=0$</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31.55410075895805</v>
+        <v>53.19441121287843</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>184.48620547857834</t>
+          <t>367.9078078144518</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>47.33115113843708</v>
+        <v>79.79161681931764</v>
       </c>
     </row>
     <row r="9">
@@ -608,19 +608,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LGR OW Cap Cont</t>
+          <t>LGR MW Cap Cont</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>26.45949155439375</v>
+        <v>49.41878105595734</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>63.600736650569935</t>
+          <t>79.83016095056743</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>39.68923733159062</v>
+        <v>74.12817158393601</v>
       </c>
     </row>
     <row r="10">
@@ -629,19 +629,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LGR OW Cap Discont</t>
+          <t>LGR MW Cap Discont</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.44962881442618</v>
+        <v>33.14251244690929</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.903611780638957</t>
+          <t>54.974210113966926</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6.674443221639271</v>
+        <v>49.71376867036393</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LGR WW $P_c=0$</t>
+          <t>LGR OW $P_c=0$</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>36.3063335246803</v>
+        <v>51.84127890532406</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>199.43849331845163</t>
+          <t>593.8602255833321</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>54.45950028702045</v>
+        <v>77.76191835798609</v>
       </c>
     </row>
     <row r="12">
@@ -671,19 +671,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LGR WW Cap Cont</t>
+          <t>LGR OW Cap Cont</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>36.05112355024894</v>
+        <v>31.82151418984968</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>31.537047093247374</t>
+          <t>387.6607578896958</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>54.07668532537341</v>
+        <v>47.73227128477452</v>
       </c>
     </row>
     <row r="13">
@@ -692,19 +692,82 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>LGR OW Cap Discont</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4.449654317664073</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.902757414018232</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6.674481476496108</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LGR WW $P_c=0$</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>37.12633790608448</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>204.86121589861713</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>55.68950685912672</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>LGR WW Cap Cont</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>36.05561768750189</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>49.4509329109996</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>54.08342653125284</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>LGR WW Cap Discont</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>37.10043283550511</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>46.17924973768033</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>55.65064925325767</v>
+      <c r="C16" t="n">
+        <v>37.17473798739828</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>89.79332301621608</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>55.76210698109742</v>
       </c>
     </row>
   </sheetData>
